--- a/UserID_RCM1_Records_Import.xlsx
+++ b/UserID_RCM1_Records_Import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="11340" windowHeight="6795"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="11340" windowHeight="6795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>test.principal@mailinator.com</t>
   </si>
   <si>
-    <t>insight.admin@mailinator.com</t>
+    <t>insight.admin@rcm1.com</t>
   </si>
   <si>
-    <t>insight.user@mailinator.com</t>
+    <t>insight.user@rcm1.com</t>
   </si>
 </sst>
 </file>
@@ -54,7 +54,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -86,11 +86,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -186,7 +181,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -216,9 +211,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -599,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -810,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -909,7 +901,7 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1010,7 +1002,11 @@
       <c r="I13" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/UserID_RCM1_Records_Import.xlsx
+++ b/UserID_RCM1_Records_Import.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>UserId</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>test.principal@mailinator.com</t>
-  </si>
-  <si>
-    <t>insight.admin@rcm1.com</t>
   </si>
   <si>
     <t>insight.user@rcm1.com</t>
@@ -800,10 +797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -876,137 +873,117 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>